--- a/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_55_.xlsx
+++ b/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_55_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -783,7 +1302,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -812,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="59.18988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="59.18988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-07-10T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1450782</v>
       </c>
@@ -1302,120 +1821,41 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>37485</v>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>TCKU3161231</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J9" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K9" s="0" t="inlineStr">
-        <is>
-          <t>2538/2018</t>
-        </is>
-      </c>
-      <c r="L9" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="d">
-        <v>2018-08-30T00:00:00</v>
-      </c>
-      <c r="N9" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
       <c r="O9" s="0"/>
-      <c r="P9" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="0" t="n">
-        <v>1472213</v>
-      </c>
-      <c r="W9" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y9" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>37531</v>
@@ -1526,120 +1966,41 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>37531</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>TCKU1873999</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t>VASI SUN</t>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t>2460/2018</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="0" t="n">
-        <v>1472744</v>
-      </c>
-      <c r="W11" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y11" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>36960</v>
@@ -1750,232 +2111,74 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>36960</v>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>TTNU3966594</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M13" s="4" t="d">
-        <v>2018-05-16T00:00:00</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0" t="n">
-        <v>201</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="0" t="n">
-        <v>1428683</v>
-      </c>
-      <c r="W13" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
       <c r="X13" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y13" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR MIDDLE GASKET CUT 3"</t>
         </is>
       </c>
-      <c r="Z13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y13" s="0"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>36960</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>TTNU3966594</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M14" s="4" t="d">
-        <v>2018-05-16T00:00:00</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
       <c r="O14" s="0"/>
-      <c r="P14" s="0" t="n">
-        <v>201</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="0" t="n">
-        <v>1428683</v>
-      </c>
-      <c r="W14" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y14" s="0" t="inlineStr">
-        <is>
           <t>LEFT SIDE PANEL 3,4 CUT 2" &amp; 4"X2"</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>37088</v>
@@ -2086,228 +2289,70 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>37088</v>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>TCKU1994856</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K16" s="0" t="inlineStr">
-        <is>
-          <t>1995/2018</t>
-        </is>
-      </c>
-      <c r="L16" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M16" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
-      </c>
-      <c r="N16" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
       <c r="O16" s="0"/>
-      <c r="P16" s="0" t="n">
-        <v>139</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="0" t="n">
-        <v>1454313</v>
-      </c>
-      <c r="W16" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
       <c r="X16" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y16" s="0" t="inlineStr">
-        <is>
           <t>EXTERNAL PANEL RUSTED CORROSION</t>
         </is>
       </c>
-      <c r="Z16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>37088</v>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>TCKU1994856</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>GLA</t>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t>PMS</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="inlineStr">
-        <is>
-          <t>VASI STAR</t>
-        </is>
-      </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t>1995/2018</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="M17" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
-      </c>
-      <c r="N17" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
       <c r="O17" s="0"/>
-      <c r="P17" s="0" t="n">
-        <v>139</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="0" t="n">
-        <v>1454313</v>
-      </c>
-      <c r="W17" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y17" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY WOOD &amp; MUD DUST &amp; SCRATCHED</t>
         </is>
       </c>
-      <c r="Z17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_55_.xlsx
+++ b/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_55_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="239.58988764044943" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="59.18988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="27.28988764044944"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1821,37 +1821,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
@@ -1966,37 +1945,16 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
@@ -2111,70 +2069,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR MIDDLE GASKET CUT 3"</t>
-        </is>
-      </c>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR MIDDLE GASKET CUT 3\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0" t="inlineStr">
-        <is>
-          <t>LEFT SIDE PANEL 3,4 CUT 2" &amp; 4"X2"</t>
-        </is>
-      </c>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "LEFT SIDE PANEL 3,4 CUT 2\" &amp; 4\"X2\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
@@ -2289,70 +2205,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY WOOD &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY WOOD &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_55_.xlsx
+++ b/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_55_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="239.58988764044943" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="27.28988764044944"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="59.18988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1826,9 +1826,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1950,9 +1996,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB11" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2074,9 +2166,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR MIDDLE GASKET CUT 3\"", "", "", ""]</t>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y13" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR MIDDLE GASKET CUT 3"</t>
+        </is>
+      </c>
+      <c r="Z13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2086,9 +2224,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "LEFT SIDE PANEL 3,4 CUT 2\" &amp; 4\"X2\"", "", "", ""]</t>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>LEFT SIDE PANEL 3,4 CUT 2" &amp; 4"X2"</t>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2210,9 +2394,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X16" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y16" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB16" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2222,9 +2452,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY WOOD &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y17" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY WOOD &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_55_.xlsx
+++ b/reports/_PMS_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_55_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:6</t>
+          <t>Total number of containers:6</t>
         </is>
       </c>
     </row>
